--- a/data/trans_orig/VUL_ANS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Estudios-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en País Vasco</t>
+          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en Andalucia</t>
+          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en C.Valenciana</t>
+          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_ANS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Estudios-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3625</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2256</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6042</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9542</t>
+          <t>9286</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7317</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12483</t>
+          <t>12043</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>13166</t>
+          <t>12489</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10388</t>
+          <t>9771</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>16607</t>
+          <t>15592</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,11%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84218</t>
+          <t>79014</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81801</t>
+          <t>77343</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>85587</t>
+          <t>80215</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>95,87%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,43%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>118102</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>115161</t>
+          <t>109343</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>120327</t>
+          <t>114297</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,52%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,22%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,27%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>202322</t>
+          <t>191114</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>198881</t>
+          <t>188011</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>205100</t>
+          <t>193832</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -961,17 +961,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>87843</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -996,17 +996,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>127644</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1031,17 +1031,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>215488</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1078,32 +1078,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15024</t>
+          <t>14246</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11839</t>
+          <t>11384</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18872</t>
+          <t>18124</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1113,32 +1113,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24252</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20162</t>
+          <t>20197</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28816</t>
+          <t>28950</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1148,32 +1148,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>39276</t>
+          <t>38583</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>33975</t>
+          <t>34040</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>44760</t>
+          <t>45149</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>436941</t>
+          <t>446592</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>433093</t>
+          <t>442714</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>440126</t>
+          <t>449454</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,38%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>407405</t>
+          <t>420640</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>402841</t>
+          <t>416027</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>411495</t>
+          <t>424780</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,32%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>844346</t>
+          <t>867232</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>838862</t>
+          <t>860666</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>849647</t>
+          <t>871775</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,56%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,16%</t>
+          <t>96,24%</t>
         </is>
       </c>
     </row>
@@ -1304,17 +1304,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>451965</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>431657</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1374,17 +1374,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>883622</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1421,32 +1421,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3184</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4981</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>7906</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5904</t>
+          <t>6150</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10715</t>
+          <t>11112</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,32 +1491,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>11089</t>
+          <t>12634</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>8627</t>
+          <t>9921</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14027</t>
+          <t>15891</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -1534,32 +1534,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>147835</t>
+          <t>171140</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>146038</t>
+          <t>168830</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>149146</t>
+          <t>172748</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,89%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,76%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1569,32 +1569,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>186774</t>
+          <t>220123</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>183965</t>
+          <t>217421</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>188776</t>
+          <t>222383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,5%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1604,32 +1604,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>334610</t>
+          <t>391263</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>331672</t>
+          <t>388006</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>337072</t>
+          <t>393976</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,79%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,5%</t>
+          <t>97,54%</t>
         </is>
       </c>
     </row>
@@ -1647,17 +1647,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>151019</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1682,17 +1682,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>194680</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1717,17 +1717,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>345699</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1764,32 +1764,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17894</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26060</t>
+          <t>26245</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,32 +1799,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>41699</t>
+          <t>42033</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36368</t>
+          <t>36969</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47755</t>
+          <t>48078</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>63532</t>
+          <t>63706</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>56873</t>
+          <t>57361</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>70824</t>
+          <t>71920</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,94%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -1877,32 +1877,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>668994</t>
+          <t>696747</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>664767</t>
+          <t>692174</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>672933</t>
+          <t>700619</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,32 +1912,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>712282</t>
+          <t>752863</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>706226</t>
+          <t>746818</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>717613</t>
+          <t>757927</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,18%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,32 +1947,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1381277</t>
+          <t>1449609</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1373985</t>
+          <t>1441395</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1387936</t>
+          <t>1455954</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>96,21%</t>
         </is>
       </c>
     </row>
@@ -1990,17 +1990,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>690827</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>753981</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2060,17 +2060,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1444809</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2351,12 +2351,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8585</t>
+          <t>8466</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22780</t>
+          <t>22725</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -2366,12 +2366,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,98%</t>
+          <t>9,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>44292</t>
+          <t>43388</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>64450</t>
+          <t>65458</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -2401,12 +2401,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>55361</t>
+          <t>56982</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>82254</t>
+          <t>81489</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -2436,12 +2436,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>9,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>13,06%</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>205517</t>
+          <t>205572</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>219712</t>
+          <t>219831</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -2479,12 +2479,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,02%</t>
+          <t>90,05%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>96,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>331135</t>
+          <t>330127</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>351293</t>
+          <t>352197</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -2514,12 +2514,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>83,45%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>88,8%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>541628</t>
+          <t>542393</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>568521</t>
+          <t>566900</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>86,94%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>90,87%</t>
         </is>
       </c>
     </row>
@@ -2694,12 +2694,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22031</t>
+          <t>22714</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>56540</t>
+          <t>57013</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -2709,12 +2709,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>65641</t>
+          <t>63788</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>138138</t>
+          <t>135107</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -2764,12 +2764,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>102901</t>
+          <t>99926</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>180323</t>
+          <t>182451</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -2779,12 +2779,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -2807,12 +2807,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1352134</t>
+          <t>1351661</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1386643</t>
+          <t>1385960</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>95,95%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>98,44%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -2842,12 +2842,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1246902</t>
+          <t>1249933</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1319399</t>
+          <t>1321252</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -2857,12 +2857,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,03%</t>
+          <t>90,25%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>95,39%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>2613391</t>
+          <t>2611263</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>2690813</t>
+          <t>2693788</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -2892,12 +2892,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,47%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>96,42%</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12941</t>
+          <t>13308</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33878</t>
+          <t>33951</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -3052,12 +3052,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>7,41%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16823</t>
+          <t>17209</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36473</t>
+          <t>36799</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -3087,12 +3087,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -3107,12 +3107,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>34910</t>
+          <t>36016</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>65249</t>
+          <t>63752</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -3122,12 +3122,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,07%</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>424047</t>
+          <t>423974</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>444984</t>
+          <t>444617</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3165,12 +3165,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,6%</t>
+          <t>92,59%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,17%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -3185,12 +3185,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>406901</t>
+          <t>406575</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>426551</t>
+          <t>426165</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3200,12 +3200,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,77%</t>
+          <t>91,7%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -3220,12 +3220,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>836050</t>
+          <t>837547</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>866389</t>
+          <t>865283</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,76%</t>
+          <t>92,93%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,13%</t>
+          <t>96,0%</t>
         </is>
       </c>
     </row>
@@ -3380,12 +3380,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>48935</t>
+          <t>49800</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>96892</t>
+          <t>97192</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -3395,12 +3395,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,38%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -3415,12 +3415,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>138098</t>
+          <t>138674</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>219571</t>
+          <t>218763</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>9,84%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -3450,12 +3450,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>203632</t>
+          <t>210428</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>302753</t>
+          <t>307297</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -3465,12 +3465,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>7,12%</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1998004</t>
+          <t>1997704</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2045961</t>
+          <t>2045096</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -3508,12 +3508,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,66%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2004428</t>
+          <t>2005236</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2085901</t>
+          <t>2085325</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,13%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,79%</t>
+          <t>93,76%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -3563,12 +3563,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4016142</t>
+          <t>4011598</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4115263</t>
+          <t>4108467</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -3578,12 +3578,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>95,13%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_ANS-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/VUL_ANS-Estudios-trans_orig.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -730,107 +730,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3202</t>
+          <t>14840</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>8873</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4873</t>
+          <t>23391</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9286</t>
+          <t>60749</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>7089</t>
+          <t>49146</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12043</t>
+          <t>72588</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>14,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>11,35%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>16,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>12489</t>
+          <t>75589</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>9771</t>
+          <t>63112</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>15592</t>
+          <t>89401</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>10,98%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>12,98%</t>
         </is>
       </c>
     </row>
@@ -843,107 +843,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>273</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>79014</t>
+          <t>240552</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>77343</t>
+          <t>232001</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>80215</t>
+          <t>246519</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,1%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,07%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>97,57%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>602</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>112100</t>
+          <t>372360</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>109343</t>
+          <t>360521</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>114297</t>
+          <t>383963</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>85,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>94,16%</t>
+          <t>88,65%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1177</t>
+          <t>875</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>191114</t>
+          <t>612912</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>188011</t>
+          <t>599100</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>193832</t>
+          <t>625389</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>89,02%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>87,02%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>95,2%</t>
+          <t>90,83%</t>
         </is>
       </c>
     </row>
@@ -956,22 +956,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>290</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82216</t>
+          <t>255392</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -991,22 +991,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>753</t>
+          <t>696</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433109</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433109</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>121386</t>
+          <t>433109</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1026,22 +1026,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1254</t>
+          <t>986</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>688501</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>688501</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>203603</t>
+          <t>688501</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1073,107 +1073,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14246</t>
+          <t>43349</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11384</t>
+          <t>30912</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18124</t>
+          <t>62029</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>161</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24337</t>
+          <t>118556</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20197</t>
+          <t>101402</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>28950</t>
+          <t>138259</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>7,98%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>201</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>38583</t>
+          <t>161904</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>34040</t>
+          <t>139499</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>45149</t>
+          <t>187622</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>5,46%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>7,34%</t>
         </is>
       </c>
     </row>
@@ -1186,107 +1186,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2559</t>
+          <t>1070</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>446592</t>
+          <t>1243470</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>442714</t>
+          <t>1224790</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>449454</t>
+          <t>1255907</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,91%</t>
+          <t>96,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>95,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,6%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>420640</t>
+          <t>1151416</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>416027</t>
+          <t>1131713</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>424780</t>
+          <t>1168570</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,49%</t>
+          <t>89,11%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,46%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4920</t>
+          <t>2547</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>867232</t>
+          <t>2394887</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>860666</t>
+          <t>2369169</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>871775</t>
+          <t>2417292</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>94,54%</t>
         </is>
       </c>
     </row>
@@ -1299,22 +1299,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2639</t>
+          <t>1110</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>460838</t>
+          <t>1286819</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1334,22 +1334,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2503</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1269972</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1269972</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>444977</t>
+          <t>1269972</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1369,22 +1369,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>5142</t>
+          <t>2748</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2556791</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2556791</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>905815</t>
+          <t>2556791</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1416,107 +1416,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4224</t>
+          <t>25471</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>15591</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6534</t>
+          <t>39736</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8410</t>
+          <t>28592</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6150</t>
+          <t>20110</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>11112</t>
+          <t>41021</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,68%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>12634</t>
+          <t>54063</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9921</t>
+          <t>41759</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>15891</t>
+          <t>71373</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>7,11%</t>
         </is>
       </c>
     </row>
@@ -1529,107 +1529,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>463</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>171140</t>
+          <t>482358</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>168830</t>
+          <t>468093</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>172748</t>
+          <t>492238</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>97,59%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,51%</t>
+          <t>96,93%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1154</t>
+          <t>632</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>220123</t>
+          <t>467314</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>217421</t>
+          <t>454885</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>222383</t>
+          <t>475796</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,32%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,31%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2039</t>
+          <t>1095</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>391263</t>
+          <t>949672</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>388006</t>
+          <t>932362</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>393976</t>
+          <t>961976</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>92,89%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>95,84%</t>
         </is>
       </c>
     </row>
@@ -1642,22 +1642,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>906</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>507829</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>507829</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>175364</t>
+          <t>507829</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>666</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>228533</t>
+          <t>495906</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1712,22 +1712,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>2108</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1003735</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1003735</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>403897</t>
+          <t>1003735</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1759,72 +1759,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21672</t>
+          <t>83660</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17800</t>
+          <t>65989</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>26245</t>
+          <t>104921</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,48%</t>
+          <t>3,22%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>289</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>42033</t>
+          <t>207896</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36969</t>
+          <t>183536</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>48078</t>
+          <t>234892</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>9,45%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>8,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>10,68%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,32 +1834,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>63706</t>
+          <t>291556</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>57361</t>
+          <t>263379</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>71920</t>
+          <t>324539</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>7,64%</t>
         </is>
       </c>
     </row>
@@ -1872,107 +1872,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3926</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>696747</t>
+          <t>1966379</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>692174</t>
+          <t>1945118</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>700619</t>
+          <t>1984050</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>95,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,35%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>96,78%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>2711</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>752863</t>
+          <t>1991091</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>746818</t>
+          <t>1964095</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>757927</t>
+          <t>2015451</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>95,35%</t>
+          <t>91,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>8136</t>
+          <t>4517</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1449609</t>
+          <t>3957471</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1441395</t>
+          <t>3924488</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1455954</t>
+          <t>3985648</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>93,14%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>95,25%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>93,8%</t>
         </is>
       </c>
     </row>
@@ -1985,22 +1985,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>1885</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2050039</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2050039</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>718419</t>
+          <t>2050039</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,22 +2020,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4458</t>
+          <t>3000</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2198987</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2198987</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>794896</t>
+          <t>2198987</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,22 +2055,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8504</t>
+          <t>4885</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4249027</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4249027</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1513315</t>
+          <t>4249027</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2156,7 +2156,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en Andalucia (tasa de respuesta: 99,86%)</t>
+          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2341,107 +2341,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14314</t>
+          <t>6613</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8466</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>22725</t>
+          <t>10662</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,27%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>54121</t>
+          <t>16506</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>43388</t>
+          <t>11772</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>65458</t>
+          <t>23053</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>16,55%</t>
+          <t>8,42%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>68435</t>
+          <t>23119</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>56982</t>
+          <t>17485</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>81489</t>
+          <t>31365</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>6,41%</t>
         </is>
       </c>
     </row>
@@ -2454,107 +2454,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>535</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>213983</t>
+          <t>209183</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>205572</t>
+          <t>205134</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>219831</t>
+          <t>211843</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,73%</t>
+          <t>96,94%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>96,29%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>606</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>341464</t>
+          <t>257175</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>330127</t>
+          <t>250628</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>352197</t>
+          <t>261909</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>86,32%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>83,45%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>875</t>
+          <t>1141</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>555447</t>
+          <t>466359</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>542393</t>
+          <t>458113</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>566900</t>
+          <t>471993</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>95,28%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>86,94%</t>
+          <t>93,59%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>96,43%</t>
         </is>
       </c>
     </row>
@@ -2567,22 +2567,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>228297</t>
+          <t>215796</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2602,22 +2602,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>644</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>395585</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>395585</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>395585</t>
+          <t>273681</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -2637,22 +2637,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>986</t>
+          <t>1197</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>623882</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>623882</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>623882</t>
+          <t>489478</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -2684,107 +2684,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>39468</t>
+          <t>26056</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22714</t>
+          <t>20273</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57013</t>
+          <t>34432</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>44088</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35071</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>55302</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,36%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>70143</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>58630</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>82493</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
           <t>4,05%</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>106358</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>63788</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>135107</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>7,68%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>4,61%</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>9,75%</t>
-        </is>
-      </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>201</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>145826</t>
-        </is>
-      </c>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>99926</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>182451</t>
-        </is>
-      </c>
-      <c r="U7" s="2" t="inlineStr">
-        <is>
-          <t>5,22%</t>
-        </is>
-      </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -2797,107 +2797,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1070</t>
+          <t>1582</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1369206</t>
+          <t>835708</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1351661</t>
+          <t>827332</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1385960</t>
+          <t>841491</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>96,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>97,65%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1443</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>825988</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>814774</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>835005</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>94,93%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>93,64%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>95,97%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1661696</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1649346</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1673209</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
           <t>95,95%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>98,39%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1477</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1278682</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1249933</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>1321252</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>92,32%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>90,25%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>95,39%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>2547</t>
-        </is>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>2647888</t>
-        </is>
-      </c>
-      <c r="S8" s="2" t="inlineStr">
-        <is>
-          <t>2611263</t>
-        </is>
-      </c>
-      <c r="T8" s="2" t="inlineStr">
-        <is>
-          <t>2693788</t>
-        </is>
-      </c>
-      <c r="U8" s="2" t="inlineStr">
-        <is>
-          <t>94,78%</t>
-        </is>
-      </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,61%</t>
         </is>
       </c>
     </row>
@@ -2910,22 +2910,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1110</t>
+          <t>1634</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>861764</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>861764</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1408674</t>
+          <t>861764</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>1527</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1385040</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1385040</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1385040</t>
+          <t>870076</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -2980,22 +2980,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>3161</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>2793714</t>
+          <t>1731839</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>2793714</t>
+          <t>1731839</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>2793714</t>
+          <t>1731839</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -3027,107 +3027,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22164</t>
+          <t>4604</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13308</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33951</t>
+          <t>8801</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>20</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25478</t>
+          <t>9915</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17209</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>36799</t>
+          <t>15750</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>30</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>47643</t>
+          <t>14519</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>36016</t>
+          <t>9652</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>63752</t>
+          <t>21630</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -3140,107 +3140,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>646</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>435761</t>
+          <t>374164</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>423974</t>
+          <t>369967</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>444617</t>
+          <t>376549</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>98,78%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>92,59%</t>
+          <t>97,68%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>97,09%</t>
+          <t>99,41%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>632</t>
+          <t>677</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>417896</t>
+          <t>404793</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>406575</t>
+          <t>398958</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>426165</t>
+          <t>408598</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>98,53%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1095</t>
+          <t>1323</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>853656</t>
+          <t>778957</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>837547</t>
+          <t>771846</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>865283</t>
+          <t>783824</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>94,71%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,93%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>98,78%</t>
         </is>
       </c>
     </row>
@@ -3253,22 +3253,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>656</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>457925</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>457925</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>457925</t>
+          <t>378768</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -3288,22 +3288,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>697</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>443374</t>
+          <t>414708</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3323,22 +3323,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>901299</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>901299</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>901299</t>
+          <t>793476</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -3370,107 +3370,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75947</t>
+          <t>37273</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>49800</t>
+          <t>29233</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>97192</t>
+          <t>47886</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>185957</t>
+          <t>70509</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>138674</t>
+          <t>59041</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>218763</t>
+          <t>83871</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>3,79%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>222</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>261904</t>
+          <t>107781</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>210428</t>
+          <t>93682</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>307297</t>
+          <t>124081</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>4,12%</t>
         </is>
       </c>
     </row>
@@ -3483,107 +3483,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>2763</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2018949</t>
+          <t>1419055</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1997704</t>
+          <t>1408442</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2045096</t>
+          <t>1427095</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>97,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,36%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,62%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2726</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2038042</t>
+          <t>1487956</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2005236</t>
+          <t>1474594</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2085325</t>
+          <t>1499424</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>95,48%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>94,62%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>93,76%</t>
+          <t>96,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4517</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>4056991</t>
+          <t>2907012</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>4011598</t>
+          <t>2890712</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>4108467</t>
+          <t>2921111</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>96,42%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>92,88%</t>
+          <t>95,88%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -3596,22 +3596,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1885</t>
+          <t>2843</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2094896</t>
+          <t>1456328</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2094896</t>
+          <t>1456328</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2094896</t>
+          <t>1456328</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -3631,22 +3631,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3000</t>
+          <t>2868</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2223999</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2223999</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2223999</t>
+          <t>1558465</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -3666,22 +3666,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4885</t>
+          <t>5711</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>4318895</t>
+          <t>3014793</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>4318895</t>
+          <t>3014793</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>4318895</t>
+          <t>3014793</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -3767,7 +3767,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Vulnerabilidad ante la ansiedad en C.Valenciana (tasa de respuesta: 99,77%)</t>
+          <t>Vulnerabilidad ante la ansiedad en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3952,107 +3952,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6613</t>
+          <t>3202</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3953</t>
+          <t>2001</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10662</t>
+          <t>4873</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16506</t>
+          <t>9286</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>11772</t>
+          <t>7089</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>23053</t>
+          <t>12043</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>5,84%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>9,92%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>77</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23119</t>
+          <t>12489</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17485</t>
+          <t>9771</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>31365</t>
+          <t>15592</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>7,66%</t>
         </is>
       </c>
     </row>
@@ -4065,107 +4065,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>209183</t>
+          <t>79014</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>205134</t>
+          <t>77343</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>211843</t>
+          <t>80215</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,06%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>606</t>
+          <t>695</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>257175</t>
+          <t>112100</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>250628</t>
+          <t>109343</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>261909</t>
+          <t>114297</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,97%</t>
+          <t>92,35%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>91,58%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>94,16%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1141</t>
+          <t>1177</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>466359</t>
+          <t>191114</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>458113</t>
+          <t>188011</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>471993</t>
+          <t>193832</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>93,87%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>93,59%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>96,43%</t>
+          <t>95,2%</t>
         </is>
       </c>
     </row>
@@ -4178,22 +4178,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>501</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>215796</t>
+          <t>82216</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4213,22 +4213,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>753</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>273681</t>
+          <t>121386</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4248,22 +4248,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>1197</t>
+          <t>1254</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>489478</t>
+          <t>203603</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4295,107 +4295,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>80</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26056</t>
+          <t>14246</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20273</t>
+          <t>11384</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34432</t>
+          <t>18124</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>142</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>44088</t>
+          <t>24337</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>35071</t>
+          <t>20197</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>55302</t>
+          <t>28950</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>5,47%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>4,03%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>222</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>70143</t>
+          <t>38583</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>58630</t>
+          <t>34040</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>82493</t>
+          <t>45149</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -4408,107 +4408,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1582</t>
+          <t>2559</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>835708</t>
+          <t>446592</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>827332</t>
+          <t>442714</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>841491</t>
+          <t>449454</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,98%</t>
+          <t>96,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,65%</t>
+          <t>97,53%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>2361</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>825988</t>
+          <t>420640</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>814774</t>
+          <t>416027</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>835005</t>
+          <t>424780</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>93,49%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,97%</t>
+          <t>95,46%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>3025</t>
+          <t>4920</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1661696</t>
+          <t>867232</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1649346</t>
+          <t>860666</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1673209</t>
+          <t>871775</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,95%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,61%</t>
+          <t>96,24%</t>
         </is>
       </c>
     </row>
@@ -4521,22 +4521,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1634</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>861764</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>861764</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>861764</t>
+          <t>460838</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4556,22 +4556,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1527</t>
+          <t>2503</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>870076</t>
+          <t>444977</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>3161</t>
+          <t>5142</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>1731839</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>1731839</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>1731839</t>
+          <t>905815</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4638,107 +4638,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4604</t>
+          <t>4224</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>2616</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8801</t>
+          <t>6534</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>48</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9915</t>
+          <t>8410</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>6150</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>15750</t>
+          <t>11112</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>14519</t>
+          <t>12634</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>9652</t>
+          <t>9921</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>21630</t>
+          <t>15891</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -4751,107 +4751,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>885</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>374164</t>
+          <t>171140</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>369967</t>
+          <t>168830</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>376549</t>
+          <t>172748</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,41%</t>
+          <t>98,51%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>1154</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>404793</t>
+          <t>220123</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>398958</t>
+          <t>217421</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>408598</t>
+          <t>222383</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>96,32%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>98,53%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1323</t>
+          <t>2039</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>778957</t>
+          <t>391263</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>771846</t>
+          <t>388006</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>783824</t>
+          <t>393976</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>98,17%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>98,78%</t>
+          <t>97,54%</t>
         </is>
       </c>
     </row>
@@ -4864,22 +4864,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>906</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>378768</t>
+          <t>175364</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4899,22 +4899,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>1202</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>414708</t>
+          <t>228533</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>2108</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>793476</t>
+          <t>403897</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4981,107 +4981,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>37273</t>
+          <t>21672</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>29233</t>
+          <t>17800</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>47886</t>
+          <t>26245</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,48%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>248</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>70509</t>
+          <t>42033</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>59041</t>
+          <t>36969</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>83871</t>
+          <t>48078</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>63706</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>57361</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>71920</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
           <t>3,79%</t>
         </is>
       </c>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>107781</t>
-        </is>
-      </c>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>93682</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr">
-        <is>
-          <t>124081</t>
-        </is>
-      </c>
-      <c r="U13" s="2" t="inlineStr">
-        <is>
-          <t>3,58%</t>
-        </is>
-      </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>3,11%</t>
-        </is>
-      </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>4,75%</t>
         </is>
       </c>
     </row>
@@ -5094,107 +5094,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1419055</t>
+          <t>696747</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1408442</t>
+          <t>692174</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1427095</t>
+          <t>700619</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>96,98%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,99%</t>
+          <t>97,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1487956</t>
+          <t>752863</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1474594</t>
+          <t>746818</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>1499424</t>
+          <t>757927</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,48%</t>
+          <t>94,71%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
+          <t>95,35%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>8136</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1449609</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1441395</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1455954</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>95,79%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>95,25%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
           <t>96,21%</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>5489</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>2907012</t>
-        </is>
-      </c>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>2890712</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr">
-        <is>
-          <t>2921111</t>
-        </is>
-      </c>
-      <c r="U14" s="2" t="inlineStr">
-        <is>
-          <t>96,42%</t>
-        </is>
-      </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>95,88%</t>
-        </is>
-      </c>
-      <c r="W14" s="2" t="inlineStr">
-        <is>
-          <t>96,89%</t>
         </is>
       </c>
     </row>
@@ -5207,22 +5207,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2843</t>
+          <t>4046</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1456328</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1456328</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1456328</t>
+          <t>718419</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5242,22 +5242,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2868</t>
+          <t>4458</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1558465</t>
+          <t>794896</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5277,22 +5277,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>5711</t>
+          <t>8504</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>3014793</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>3014793</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>3014793</t>
+          <t>1513315</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
